--- a/DataTable/DT_CardsUI.xlsx
+++ b/DataTable/DT_CardsUI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\90323\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D3012435-B66F-49C6-BBC6-FFCA73CE0CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB204D93-21FB-40AF-A1A3-E4092890586E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{F077932D-5552-4D5D-AE16-8E3EFEDC936A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{42B81260-985A-4B74-A2BA-B7DF455C8F63}"/>
   </bookViews>
   <sheets>
     <sheet name="DT_CardsUI" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
   <si>
     <t>---</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Cardname</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>Types</t>
   </si>
   <si>
     <t>Durability</t>
@@ -58,94 +58,91 @@
     <t>Image</t>
   </si>
   <si>
+    <t>冷枪</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>重复激活</t>
+  </si>
+  <si>
+    <t>(R=0.084376,G=0.291771,B=0.545724,A=1.000000)</t>
+  </si>
+  <si>
+    <t>(SpecifiedColor=(R=0.423268,G=0.002125,B=0.003346,A=1.000000),ColorUseRule=UseColor_Specified)</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Cards/Oo/Card_Oo.Card_Oo'</t>
+  </si>
+  <si>
+    <t>碎片化娱乐</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>(SpecifiedColor=(R=0.991102,G=0.964686,B=0.332452,A=1.000000),ColorUseRule=UseColor_Specified)</t>
+  </si>
+  <si>
+    <t>巡回</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>耐久为3</t>
+  </si>
+  <si>
+    <t>(SpecifiedColor=(R=0.008023,G=0.008023,B=0.008023,A=1.000000),ColorUseRule=UseColor_Specified)</t>
+  </si>
+  <si>
+    <t>金花之力</t>
+  </si>
+  <si>
+    <t>buff</t>
+  </si>
+  <si>
+    <t>一次性</t>
+  </si>
+  <si>
+    <t>(SpecifiedColor=(R=1.000000,G=0.000000,B=1.000000,A=1.000000),ColorUseRule=UseColor_Specified)</t>
+  </si>
+  <si>
+    <t>复飞</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>炎火瓶</t>
+  </si>
+  <si>
+    <t>(R=0.577580,G=0.030713,B=0.040915,A=1.000000)</t>
+  </si>
+  <si>
     <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Cards/Clear/Card_Clear.Card_Clear'</t>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Cards/Oo/Card_Oo.Card_Oo'</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "6EA34E5B488B9E82ABE3558A288FEB4A", "鏃犻檺")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "C654CDCA4D3253DB0D7D01A9AA9C6C4B", "biu锛屽氨姝讳簡")</t>
-  </si>
-  <si>
-    <t>(R=0.084376,G=0.291771,B=0.545724,A=1.000000)</t>
-  </si>
-  <si>
-    <t>(SpecifiedColor=(R=0.423268,G=0.002125,B=0.003346,A=1.000000),ColorUseRule=UseColor_Specified)</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "A2BC7D4A46B6114D0465BC8722B7B775", "鏃犻檺")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "E1E60ECE4C56D2E2F5137896EE787C24", "濂栧姳鏁欒偛锛屽鍔辫嚜宸变篃绠楀鍔?)"</t>
-  </si>
-  <si>
-    <t>(SpecifiedColor=(R=0.991102,G=0.964686,B=0.332452,A=1.000000),ColorUseRule=UseColor_Specified)</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "B7705A1743B393C7E1B918B4885983B8", "鑰愪箙3")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "A7B3D7FC4A76643B84971D9D9BA99D8C", "灏忓紑涓€鎶?)"</t>
-  </si>
-  <si>
-    <t>(SpecifiedColor=(R=0.008023,G=0.008023,B=0.008023,A=1.000000),ColorUseRule=UseColor_Specified)</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "5C8AB5974C9C0E7A41E7CFA90E60A4C2", "鑰愪箙1")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "996AC4F8421DE3FB6D5156A3080FA4BA", "婵€娲昏€佹鑴栧瓙鏍戠殑鍦ｉ仐鐗?)"</t>
-  </si>
-  <si>
-    <t>(SpecifiedColor=(R=1.000000,G=0.000000,B=1.000000,A=1.000000),ColorUseRule=UseColor_Specified)</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "39B434E540D1CD4AB17E3CA2EC50DBD2", "鏃犻檺")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "7C57084047B07F9F236BE8A4EC224B5E", "浼厠锛屽搷搴旀垜鐨勫彿鍙紒")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "C828C49F4950F6FA008FD2808FCD2BDD", "鏃犻檺")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "65A39F5A42BAD02BAE7991A74DE95C19", "濂ユ灄甯曟柉鍜岃但鑸嶅皵閮借澶蜂负骞冲湴锛岄兘琚ぇ鐏儳浜?)"</t>
-  </si>
-  <si>
-    <t>(R=0.577580,G=0.030713,B=0.040915,A=1.000000)</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "880EFE774527217D3475F49B0594A4E6", "鑰愪箙1")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "3CBA94B4450EC051154738A2D7DCB197", "闈欓潤绛夊緟")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "C64886BF479FC684976E09B160E6B3C5", "鑰愪箙1")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "A80B3FD84C72B213D0F46B9EC266B738", "鍗冲埢锛岄鎮熶粬鐨勪竴鍒?)"</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "397FD059482FF6417A6E768D985ABBD8", "鑰愪箙1")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "5CEC80FE401DCFE63C836983315FB5BF", "灏戝悆涔熸槸绮惧悆")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "44FB93BF4B808596953CACAA0E9DA20C", "鑰愪箙1")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "EA1DBE43463C96733C750BB86D73DFF5", "璺熻繖缇よ櫕璞稿湪涓€璧凤紝鎬庝箞鑳芥悶濂藉浗瀹跺憿锛?)"</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "8EDFBB1C4068C28297C6E288DE309897", "鏃犻檺")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "CFF5D2024EDAA87E737021B5448EC7C5", "鑽夛紝鑵板瓙缁欐垜鍒涙帀浜?)"</t>
+    <t>强袭</t>
+  </si>
+  <si>
+    <t>克隆机</t>
+  </si>
+  <si>
+    <t>mission</t>
+  </si>
+  <si>
+    <t>鱼子酱</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>忠！诚！</t>
+  </si>
+  <si>
+    <t>虎拳</t>
   </si>
   <si>
     <t>(R=0.037946,G=0.541667,B=0.133376,A=1.000000)</t>
@@ -154,31 +151,22 @@
     <t>None</t>
   </si>
   <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "DA0BC39845EF2026DACD3EA52CEEB4D1", "鏃犻檺")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "7D98C3EE40C996A193F2659C98488AD7", "鎰熷彈~鎭╁吀~")</t>
+    <t>医学</t>
+  </si>
+  <si>
+    <t>treat</t>
   </si>
   <si>
     <t>(SpecifiedColor=(R=0.095307,G=0.783538,B=0.386430,A=1.000000),ColorUseRule=UseColor_Specified)</t>
   </si>
   <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "BA6A9A0A46E9CDD3CA4029BCCF34B4FE", "鑰愪箙1")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "02F92B9945488B54F2477DB75BA2CA15", "鍘诲摢锛熸崲鑽笉璁告礂婢?)"</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "621323DF46AAF5FF1A30D38156950F4B", "鑰愪箙1")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "F88C0AEC494B251075156DAA652A9AA3", "姣旈偦姝荤伒澶ф硶甯堢幇韬?)"</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "B667802247172BD9469970B703F237CC", "鑰愪箙1")</t>
-  </si>
-  <si>
-    <t>NSLOCTEXT("[A1E8A11F5D2A9E86DDB68A4AB1650183]", "FEAECAF14E205B6BE1A15C90FB88E7E4", "涓嶆槸鍝ヤ滑锛屼綘鐪熶笉浼氱対姝诲悧")</t>
+    <t>体检</t>
+  </si>
+  <si>
+    <t>增援</t>
+  </si>
+  <si>
+    <t>三体作息</t>
   </si>
 </sst>
 </file>
@@ -1129,25 +1117,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFB0EA2-FE58-438F-BB72-521AA48A0057}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EDB122-41F7-47AE-82FC-E0EB59EC4A9A}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.33203125" customWidth="1"/>
-    <col min="4" max="4" width="112.21875" customWidth="1"/>
-    <col min="5" max="5" width="113.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="178.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="103.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="87.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1189,19 +1164,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>101</v>
+        <v>10101</v>
       </c>
       <c r="B2">
-        <v>101</v>
+        <v>10101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1210,30 +1191,36 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>102</v>
+        <v>10102</v>
       </c>
       <c r="B3">
-        <v>102</v>
+        <v>10102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1248,24 +1235,30 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>103</v>
+        <v>10103</v>
       </c>
       <c r="B4">
-        <v>103</v>
+        <v>10103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
       </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1274,30 +1267,36 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>104</v>
+        <v>10104</v>
       </c>
       <c r="B5">
-        <v>104</v>
+        <v>10104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1306,30 +1305,36 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>105</v>
+        <v>10105</v>
       </c>
       <c r="B6">
-        <v>105</v>
+        <v>10105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1338,30 +1343,36 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>201</v>
+        <v>10201</v>
       </c>
       <c r="B7">
-        <v>201</v>
+        <v>10201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1370,30 +1381,36 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>202</v>
+        <v>10202</v>
       </c>
       <c r="B8">
-        <v>202</v>
+        <v>10202</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
       </c>
       <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1402,30 +1419,36 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>203</v>
+        <v>10203</v>
       </c>
       <c r="B9">
-        <v>203</v>
+        <v>10203</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1434,30 +1457,36 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>204</v>
+        <v>10204</v>
       </c>
       <c r="B10">
-        <v>204</v>
+        <v>10204</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1472,24 +1501,30 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>205</v>
+        <v>10205</v>
       </c>
       <c r="B11">
-        <v>205</v>
+        <v>10205</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1504,24 +1539,30 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>301</v>
+        <v>10301</v>
       </c>
       <c r="B12">
-        <v>301</v>
+        <v>10301</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
       </c>
       <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>40</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>41</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1530,30 +1571,36 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>302</v>
+        <v>10302</v>
       </c>
       <c r="B13">
-        <v>302</v>
+        <v>10302</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1562,30 +1609,36 @@
         <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>303</v>
+        <v>10303</v>
       </c>
       <c r="B14">
-        <v>303</v>
+        <v>10303</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1600,24 +1653,30 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>304</v>
+        <v>10304</v>
       </c>
       <c r="B15">
-        <v>304</v>
+        <v>10304</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -1626,30 +1685,36 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>305</v>
+        <v>10305</v>
       </c>
       <c r="B16">
-        <v>305</v>
+        <v>10305</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -1658,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable/DT_CardsUI.xlsx
+++ b/DataTable/DT_CardsUI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\90323\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB204D93-21FB-40AF-A1A3-E4092890586E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC8A163-1F7C-4F6C-AC33-695CA4798065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{42B81260-985A-4B74-A2BA-B7DF455C8F63}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
   <si>
     <t>---</t>
   </si>
@@ -160,13 +160,168 @@
     <t>(SpecifiedColor=(R=0.095307,G=0.783538,B=0.386430,A=1.000000),ColorUseRule=UseColor_Specified)</t>
   </si>
   <si>
-    <t>体检</t>
-  </si>
-  <si>
     <t>增援</t>
   </si>
   <si>
     <t>三体作息</t>
+  </si>
+  <si>
+    <t>DetailDescription</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧鸥</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>气晴</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰勒塔德</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥土追魂算外科还是内科</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>比邻作息，真的假的</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常体检</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"所以，体检为什么产费啊！"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗一下</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰子给我创掉了</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一 枪 一 个</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>好比是点燃大海</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>等候致命一击</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们应该要有这个觉悟吧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时候看这集克隆人战争了</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍贵的地球产</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>”老歪脖子树的圣遗物“</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>伯克，重返签年之剩</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>正统天仓人，改不了看手机的毛病</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>有理有据，小开一把</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活后增加持续1回合的 金花之力
+金花之力：buff存在时，每抽1张牌会给予1点费用，可重复触发</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成伤害
+扩散3：对命中的第一、第二、第三个位置上的单位分别造成100%，50%，25%的伤害
+火焰附加1：对所有命中的敌人新增一层燃烧buff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成伤害
+待命：每次有一张牌被执行，则该卡牌白值+1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活后执行向前复制
+将前一张牌的各种状态完全复制（包括费用、效果数、失效状态等）并添加到自身队列的前方</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断：摧毁一个最近激活的循环
+回复8点费用
+使后一张牌的白值+3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>异色驱离：激活后使队列中的所有非同色卡牌失效
+回复3点费用
+使后一张牌伤害临时增加300%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成伤害
+同色激励：执行前判断该回合内执行的绿牌数量，每一张绿牌使白值+1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环
+循环次数为3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成伤害
+首位增效：如果位于首位，自身白值+2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复费用
+末位增效：如果位于末尾，自身回复量+2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗我方生命最低的角色10点生命值
+临色激励：执行前判断左右是否存在绿牌，每存在一张，临时效果增加100%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复6点费用
+体检：激活后使自身前方的卡牌失效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃牌抽牌至满
+从弃牌区中抽取若干牌，直到手牌区满</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌库抽牌5
+从牌库中抽5张牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活后获得队列增益：三体作息
+三体作息：使当前队列中的所有卡牌花费-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -759,9 +914,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1118,13 +1276,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EDB122-41F7-47AE-82FC-E0EB59EC4A9A}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="29.88671875" customWidth="1"/>
+    <col min="7" max="7" width="80.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1144,25 +1308,28 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10101</v>
       </c>
@@ -1179,28 +1346,31 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10102</v>
       </c>
@@ -1217,28 +1387,31 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10103</v>
       </c>
@@ -1255,28 +1428,31 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10104</v>
       </c>
@@ -1293,28 +1469,31 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10105</v>
       </c>
@@ -1331,28 +1510,31 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>28</v>
       </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10201</v>
       </c>
@@ -1369,28 +1551,31 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>3</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10202</v>
       </c>
@@ -1407,28 +1592,31 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10203</v>
       </c>
@@ -1445,28 +1633,31 @@
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
         <v>32</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>3</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>24</v>
       </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10204</v>
       </c>
@@ -1483,28 +1674,31 @@
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
         <v>32</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>8</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>20</v>
       </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10205</v>
       </c>
@@ -1521,28 +1715,31 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
         <v>32</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10301</v>
       </c>
@@ -1559,28 +1756,31 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
         <v>41</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>2</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>1</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>16</v>
       </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10302</v>
       </c>
@@ -1597,28 +1797,31 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
         <v>41</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>3</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>10</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>45</v>
       </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10303</v>
       </c>
@@ -1626,7 +1829,7 @@
         <v>10303</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -1635,28 +1838,31 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
         <v>41</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>6</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>20</v>
       </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10304</v>
       </c>
@@ -1664,7 +1870,7 @@
         <v>10304</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
@@ -1673,28 +1879,31 @@
         <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s">
         <v>41</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>5</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>28</v>
       </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10305</v>
       </c>
@@ -1702,7 +1911,7 @@
         <v>10305</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1711,24 +1920,27 @@
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s">
         <v>41</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>4</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>24</v>
       </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>42</v>
       </c>
     </row>

--- a/DataTable/DT_CardsUI.xlsx
+++ b/DataTable/DT_CardsUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC8A163-1F7C-4F6C-AC33-695CA4798065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B2185-68A7-4084-ACF1-67136FBEB61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{42B81260-985A-4B74-A2BA-B7DF455C8F63}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="130">
   <si>
     <t>---</t>
   </si>
@@ -182,14 +182,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>冥土追魂算外科还是内科</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>比邻作息，真的假的</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>日常体检</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -198,14 +190,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>治疗一下</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>腰子给我创掉了</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>一 枪 一 个</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -218,10 +202,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>我们应该要有这个觉悟吧</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>小时候看这集克隆人战争了</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -234,20 +214,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>伯克，重返签年之剩</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>正统天仓人，改不了看手机的毛病</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>有理有据，小开一把</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活后增加持续1回合的 金花之力
-金花之力：buff存在时，每抽1张牌会给予1点费用，可重复触发</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -262,11 +233,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>激活后执行向前复制
-将前一张牌的各种状态完全复制（包括费用、效果数、失效状态等）并添加到自身队列的前方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>中断：摧毁一个最近激活的循环
 回复8点费用
 使后一张牌的白值+3</t>
@@ -284,11 +250,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>循环
-循环次数为3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>对敌人造成伤害
 首位增效：如果位于首位，自身白值+2</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -321,6 +282,237 @@
   <si>
     <t>激活后获得队列增益：三体作息
 三体作息：使当前队列中的所有卡牌花费-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金多</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由主义</t>
+  </si>
+  <si>
+    <t>循环2/3
+单轮激活费用为2，循环总次数为3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环0/10
+单轮激活费用为0，循环总次数为10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>“我打三体人，真的假的”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>“冥土追魂算外科还是内科”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>“腰子给我创掉了”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>期权</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>eco</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理人战争</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mission</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>先进管理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>loop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>空袭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻海</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>重返签年之剩</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌合之众</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>募集</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻学</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播术</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敞开心扉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自深海</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>致幻剂</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐颂</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未界定药物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜渊症</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>补刀攻击</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷天换日</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>法风机关</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公务网络</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘密警察</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐蚀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>小瓶装恶魔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护伞</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自谋生路</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金雨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>“我看你是找个借口不让我洗澡”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们应该也要有这个觉悟吧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久为4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活后获得1个持续1回合的增益：金花之力
+金花之力：buff存在时，每抽1张牌会给予1点费用，可重复触发</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活后获得1个持续1回合的增益：期货
+期货：回合开始额外回复8点费用，可叠加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成伤害
+范围伤害：对敌方所有单位造成伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环1/4
+单轮激活费用为1，循环总次数为4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活后执行：向后复制
+向后复制：将后一张牌的各种状态完全复制（包括费用、效果数、失效状态等）并添加到自身的队列后方</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活后执行：向前复制
+向前复制：将前一张牌的各种状态完全复制（包括费用、效果数、失效状态等）并添加到自身的队列前方</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>先科</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>星祝</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹佛</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discard</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>continue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复激活</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性0</t>
+  </si>
+  <si>
+    <t>耐久为2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成伤害
+邻位共鸣：该卡牌的伤害取决于左右两侧attack卡牌伤害的最大值</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -328,7 +520,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +680,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -914,12 +1114,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1276,16 +1479,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EDB122-41F7-47AE-82FC-E0EB59EC4A9A}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
     <col min="6" max="6" width="29.88671875" customWidth="1"/>
     <col min="7" max="7" width="80.6640625" customWidth="1"/>
+    <col min="9" max="9" width="52.21875" customWidth="1"/>
+    <col min="12" max="12" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1346,10 +1554,10 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
         <v>49</v>
@@ -1387,10 +1595,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
         <v>49</v>
@@ -1428,10 +1636,10 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
         <v>49</v>
@@ -1469,10 +1677,10 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
         <v>49</v>
@@ -1482,9 +1690,6 @@
       </c>
       <c r="J5">
         <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>28</v>
@@ -1510,10 +1715,10 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
         <v>49</v>
@@ -1523,9 +1728,6 @@
       </c>
       <c r="J6">
         <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>28</v>
@@ -1551,10 +1753,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
         <v>50</v>
@@ -1592,10 +1794,10 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
         <v>50</v>
@@ -1633,10 +1835,10 @@
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
         <v>50</v>
@@ -1646,9 +1848,6 @@
       </c>
       <c r="J9">
         <v>3</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>24</v>
@@ -1674,10 +1873,10 @@
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
         <v>50</v>
@@ -1715,10 +1914,10 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
         <v>50</v>
@@ -1756,10 +1955,10 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
         <v>51</v>
@@ -1794,13 +1993,13 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
         <v>51</v>
@@ -1829,7 +2028,7 @@
         <v>10303</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -1838,10 +2037,10 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s">
         <v>51</v>
@@ -1879,10 +2078,10 @@
         <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
         <v>51</v>
@@ -1892,9 +2091,6 @@
       </c>
       <c r="J15">
         <v>5</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>28</v>
@@ -1920,10 +2116,10 @@
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
         <v>51</v>
@@ -1934,15 +2130,695 @@
       <c r="J16">
         <v>4</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
       <c r="L16" t="s">
         <v>24</v>
       </c>
       <c r="M16" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="17" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10401</v>
+      </c>
+      <c r="B17">
+        <v>10401</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10402</v>
+      </c>
+      <c r="B18">
+        <v>10402</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10403</v>
+      </c>
+      <c r="B19">
+        <v>10403</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10404</v>
+      </c>
+      <c r="B20">
+        <v>10404</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="M20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10405</v>
+      </c>
+      <c r="B21">
+        <v>10405</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21">
+        <v>13</v>
+      </c>
+      <c r="K21">
+        <v>50</v>
+      </c>
+      <c r="M21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10501</v>
+      </c>
+      <c r="B22">
+        <v>10501</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10502</v>
+      </c>
+      <c r="B23">
+        <v>10502</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10503</v>
+      </c>
+      <c r="B24">
+        <v>10503</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10504</v>
+      </c>
+      <c r="B25">
+        <v>10504</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10505</v>
+      </c>
+      <c r="B26">
+        <v>10505</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10601</v>
+      </c>
+      <c r="B27">
+        <v>10601</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10602</v>
+      </c>
+      <c r="B28">
+        <v>10602</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10603</v>
+      </c>
+      <c r="B29">
+        <v>10603</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10604</v>
+      </c>
+      <c r="B30">
+        <v>10604</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10605</v>
+      </c>
+      <c r="B31">
+        <v>10605</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10701</v>
+      </c>
+      <c r="B32">
+        <v>10701</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10702</v>
+      </c>
+      <c r="B33">
+        <v>10702</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10703</v>
+      </c>
+      <c r="B34">
+        <v>10703</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10704</v>
+      </c>
+      <c r="B35">
+        <v>10704</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>10705</v>
+      </c>
+      <c r="B36">
+        <v>10705</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36" t="s">
+        <v>41</v>
+      </c>
+      <c r="M36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10801</v>
+      </c>
+      <c r="B37">
+        <v>10801</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>123</v>
+      </c>
+      <c r="M37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10802</v>
+      </c>
+      <c r="B38">
+        <v>10802</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>123</v>
+      </c>
+      <c r="M38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10803</v>
+      </c>
+      <c r="B39">
+        <v>10803</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" t="s">
+        <v>123</v>
+      </c>
+      <c r="M39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10804</v>
+      </c>
+      <c r="B40">
+        <v>10804</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>123</v>
+      </c>
+      <c r="M40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10805</v>
+      </c>
+      <c r="B41">
+        <v>10805</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>123</v>
+      </c>
+      <c r="M41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E48" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/DataTable/DT_CardsUI.xlsx
+++ b/DataTable/DT_CardsUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B2185-68A7-4084-ACF1-67136FBEB61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D8043C-5839-41B4-84C0-4178F3AFEB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{42B81260-985A-4B74-A2BA-B7DF455C8F63}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="131">
   <si>
     <t>---</t>
   </si>
@@ -246,11 +246,6 @@
   </si>
   <si>
     <t>对敌人造成伤害
-同色激励：执行前判断该回合内执行的绿牌数量，每一张绿牌使白值+1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌人造成伤害
 首位增效：如果位于首位，自身白值+2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -270,11 +265,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>弃牌抽牌至满
-从弃牌区中抽取若干牌，直到手牌区满</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>牌库抽牌5
 从牌库中抽5张牌</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -513,6 +503,20 @@
   <si>
     <t>对敌人造成伤害
 邻位共鸣：该卡牌的伤害取决于左右两侧attack卡牌伤害的最大值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成伤害
+同色激励：每次有一张绿色牌被执行，则该卡牌白值+1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>从弃牌堆抽牌至满
+从弃牌区中抽取若干牌，直到手牌区满</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10305+A11:G16</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1481,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EDB122-41F7-47AE-82FC-E0EB59EC4A9A}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1557,7 +1561,7 @@
         <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
         <v>49</v>
@@ -1598,7 +1602,7 @@
         <v>60</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
         <v>49</v>
@@ -1639,7 +1643,7 @@
         <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
         <v>49</v>
@@ -1680,7 +1684,7 @@
         <v>59</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H5" t="s">
         <v>49</v>
@@ -1715,10 +1719,10 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
         <v>49</v>
@@ -1838,7 +1842,7 @@
         <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H9" t="s">
         <v>50</v>
@@ -1914,7 +1918,7 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>65</v>
@@ -1955,10 +1959,10 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="H12" t="s">
         <v>51</v>
@@ -1993,13 +1997,13 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
         <v>51</v>
@@ -2040,7 +2044,7 @@
         <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
         <v>51</v>
@@ -2078,10 +2082,10 @@
         <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H15" t="s">
         <v>51</v>
@@ -2100,8 +2104,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>10305</v>
+      <c r="A16" t="s">
+        <v>130</v>
       </c>
       <c r="B16">
         <v>10305</v>
@@ -2110,16 +2114,16 @@
         <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
         <v>51</v>
@@ -2145,19 +2149,19 @@
         <v>10401</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2177,19 +2181,19 @@
         <v>10402</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -2206,19 +2210,19 @@
         <v>10403</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2235,19 +2239,19 @@
         <v>10404</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2267,19 +2271,19 @@
         <v>10405</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J21">
         <v>13</v>
@@ -2299,19 +2303,19 @@
         <v>10501</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
@@ -2328,16 +2332,16 @@
         <v>10502</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s">
         <v>15</v>
@@ -2354,16 +2358,16 @@
         <v>10503</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
         <v>15</v>
@@ -2380,16 +2384,16 @@
         <v>10504</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
@@ -2406,16 +2410,16 @@
         <v>10505</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s">
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s">
         <v>15</v>
@@ -2432,16 +2436,16 @@
         <v>10601</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I27" t="s">
         <v>32</v>
@@ -2458,16 +2462,16 @@
         <v>10602</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
@@ -2484,16 +2488,16 @@
         <v>10603</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
@@ -2510,16 +2514,16 @@
         <v>10604</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I30" t="s">
         <v>32</v>
@@ -2536,16 +2540,16 @@
         <v>10605</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
@@ -2562,16 +2566,16 @@
         <v>10701</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I32" t="s">
         <v>41</v>
@@ -2588,16 +2592,16 @@
         <v>10702</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
         <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I33" t="s">
         <v>41</v>
@@ -2614,16 +2618,16 @@
         <v>10703</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I34" t="s">
         <v>41</v>
@@ -2640,16 +2644,16 @@
         <v>10704</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
         <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I35" t="s">
         <v>41</v>
@@ -2666,16 +2670,16 @@
         <v>10705</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
         <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I36" t="s">
         <v>41</v>
@@ -2692,16 +2696,16 @@
         <v>10801</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M37" t="s">
         <v>42</v>
@@ -2715,16 +2719,16 @@
         <v>10802</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M38" t="s">
         <v>42</v>
@@ -2738,16 +2742,16 @@
         <v>10803</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M39" t="s">
         <v>42</v>
@@ -2761,16 +2765,16 @@
         <v>10804</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M40" t="s">
         <v>42</v>
@@ -2784,16 +2788,16 @@
         <v>10805</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E41" t="s">
         <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M41" t="s">
         <v>42</v>
